--- a/final_data_pipeline/output/311423longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311423longform_elec_options_nowhp.xlsx
@@ -731,7 +731,7 @@
         <v>26</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -825,7 +825,7 @@
         <v>26</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J8">
         <v>8000</v>
